--- a/meta/news_keywords2.xlsx
+++ b/meta/news_keywords2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/05_analytics/news_scrap/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF9611C-5928-D54F-8F02-F39F503A7A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5343C-5EFF-1648-B7D0-9275D703042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27040" yWindow="500" windowWidth="38400" windowHeight="20160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
   <si>
     <t>조회방식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -293,6 +293,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>kwd_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>keyword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -310,6 +314,10 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보생명 설계사</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -769,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +846,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1870,24 +1884,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CD11B6-593B-7342-BFE1-E386BA8E8ABD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="27" customWidth="1"/>
     <col min="2" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="25"/>
+    <col min="5" max="5" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
-        <v>78</v>
+      <c r="A1" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>71</v>
@@ -1896,13 +1910,13 @@
         <v>62</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="24" t="s">
         <v>74</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1919,10 +1933,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1939,10 +1953,70 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="25" customFormat="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1969,853 +2043,853 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="22" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="29">
+        <v>90</v>
+      </c>
+      <c r="D2" s="29">
+        <v>26</v>
+      </c>
+      <c r="E2" s="39">
+        <v>110</v>
+      </c>
+      <c r="F2" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="46"/>
+      <c r="B3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="29">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="47"/>
+      <c r="B4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="29">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="29">
+        <v>62</v>
+      </c>
+      <c r="D5" s="29">
+        <v>25</v>
+      </c>
+      <c r="E5" s="39">
+        <v>140</v>
+      </c>
+      <c r="F5" s="36">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="46"/>
+      <c r="B6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="29">
+        <v>45</v>
+      </c>
+      <c r="D6" s="29">
+        <v>23</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="46"/>
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29">
+        <v>18</v>
+      </c>
+      <c r="D7" s="29">
+        <v>8</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="46"/>
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="29">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29">
+        <v>6</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="47"/>
+      <c r="B9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="29">
+        <v>86</v>
+      </c>
+      <c r="D10" s="29">
+        <v>25</v>
+      </c>
+      <c r="E10" s="39">
+        <v>156</v>
+      </c>
+      <c r="F10" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="46"/>
+      <c r="B11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="29">
+        <v>30</v>
+      </c>
+      <c r="D11" s="29">
+        <v>7</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="46"/>
+      <c r="B12" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="46"/>
+      <c r="B13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="29">
+        <v>14</v>
+      </c>
+      <c r="D13" s="29">
+        <v>6</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="46"/>
+      <c r="B14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="29">
+        <v>25</v>
+      </c>
+      <c r="D14" s="29">
+        <v>5</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="47"/>
+      <c r="B15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="29">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>161</v>
+      </c>
+      <c r="F16" s="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="46"/>
+      <c r="B17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="29">
+        <v>33</v>
+      </c>
+      <c r="D17" s="29">
+        <v>10</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="29">
+        <v>39</v>
+      </c>
+      <c r="D18" s="29">
+        <v>9</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="46"/>
+      <c r="B19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="29">
+        <v>74</v>
+      </c>
+      <c r="D19" s="29">
+        <v>16</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="46"/>
+      <c r="B20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="47"/>
+      <c r="B21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="29">
+        <v>17</v>
+      </c>
+      <c r="D22" s="29">
+        <v>4</v>
+      </c>
+      <c r="E22" s="39">
+        <v>165</v>
+      </c>
+      <c r="F22" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="46"/>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="29">
+        <v>4</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="46"/>
+      <c r="B24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29">
+        <v>87</v>
+      </c>
+      <c r="D24" s="29">
+        <v>12</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="46"/>
+      <c r="B25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="29">
+        <v>57</v>
+      </c>
+      <c r="D25" s="29">
+        <v>17</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="46"/>
+      <c r="B26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="47"/>
+      <c r="B27" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="29">
+        <v>83</v>
+      </c>
+      <c r="D28" s="29">
+        <v>31</v>
+      </c>
+      <c r="E28" s="39">
+        <v>295</v>
+      </c>
+      <c r="F28" s="36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="46"/>
+      <c r="B29" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="46"/>
+      <c r="B30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="29">
+        <v>63</v>
+      </c>
+      <c r="D30" s="29">
+        <v>25</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="46"/>
+      <c r="B31" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="29">
+        <v>81</v>
+      </c>
+      <c r="D31" s="29">
+        <v>23</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="46"/>
+      <c r="B32" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="29">
+        <v>54</v>
+      </c>
+      <c r="D32" s="29">
+        <v>10</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="46"/>
+      <c r="B33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="29">
+        <v>13</v>
+      </c>
+      <c r="D33" s="29">
+        <v>3</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="47"/>
+      <c r="B34" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="29">
+        <v>45</v>
+      </c>
+      <c r="D35" s="29">
+        <v>15</v>
+      </c>
+      <c r="E35" s="39">
+        <v>682</v>
+      </c>
+      <c r="F35" s="36">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="46"/>
+      <c r="B36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="29">
+        <v>72</v>
+      </c>
+      <c r="D36" s="29">
+        <v>28</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="46"/>
+      <c r="B37" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="29">
+        <v>3</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="A38" s="46"/>
+      <c r="B38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="29">
+        <v>54</v>
+      </c>
+      <c r="D38" s="29">
+        <v>24</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="A39" s="46"/>
+      <c r="B39" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="29">
+        <v>74</v>
+      </c>
+      <c r="D39" s="29">
+        <v>14</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="A40" s="46"/>
+      <c r="B40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="29">
+        <v>69</v>
+      </c>
+      <c r="D40" s="29">
+        <v>34</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="A41" s="46"/>
+      <c r="B41" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="29">
+        <v>48</v>
+      </c>
+      <c r="D41" s="29">
+        <v>18</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="46"/>
+      <c r="B42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="29">
+        <v>93</v>
+      </c>
+      <c r="D42" s="29">
+        <v>53</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="1:6" ht="18">
+      <c r="A43" s="46"/>
+      <c r="B43" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="29">
+        <v>49</v>
+      </c>
+      <c r="D43" s="29">
+        <v>7</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="1:6" ht="18">
+      <c r="A44" s="46"/>
+      <c r="B44" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="29">
+        <v>57</v>
+      </c>
+      <c r="D44" s="29">
+        <v>30</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45" spans="1:6" ht="18">
+      <c r="A45" s="46"/>
+      <c r="B45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="29">
+        <v>7</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="37"/>
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="46"/>
+      <c r="B46" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="29">
+        <v>64</v>
+      </c>
+      <c r="D46" s="29">
+        <v>37</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="46"/>
+      <c r="B47" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C47" s="29">
+        <v>47</v>
+      </c>
+      <c r="D47" s="29">
+        <v>19</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="46"/>
+      <c r="B48" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="1:6" ht="18">
+      <c r="A49" s="47"/>
+      <c r="B49" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="1:6" ht="18">
+      <c r="A50" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="29">
+        <v>41</v>
+      </c>
+      <c r="D50" s="29">
+        <v>8</v>
+      </c>
+      <c r="E50" s="42">
+        <v>248</v>
+      </c>
+      <c r="F50" s="43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18">
+      <c r="A51" s="44"/>
+      <c r="B51" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="29">
+        <v>51</v>
+      </c>
+      <c r="D51" s="29">
+        <v>15</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" ht="18">
+      <c r="A52" s="44"/>
+      <c r="B52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="29">
+        <v>60</v>
+      </c>
+      <c r="D52" s="29">
+        <v>24</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6" ht="18">
+      <c r="A53" s="44"/>
+      <c r="B53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="29">
+        <v>7</v>
+      </c>
+      <c r="D53" s="29">
+        <v>3</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:6" ht="18">
+      <c r="A54" s="44"/>
+      <c r="B54" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C54" s="29">
+        <v>67</v>
+      </c>
+      <c r="D54" s="29">
+        <v>24</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6" ht="18">
+      <c r="A55" s="44"/>
+      <c r="B55" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="29">
+        <v>22</v>
+      </c>
+      <c r="D55" s="29">
+        <v>7</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="1:6" ht="18">
+      <c r="A56" s="44"/>
+      <c r="B56" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="29">
+        <v>0</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" ht="18">
+      <c r="A57" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="27">
-        <v>90</v>
-      </c>
-      <c r="D2" s="27">
-        <v>26</v>
-      </c>
-      <c r="E2" s="37">
-        <v>110</v>
-      </c>
-      <c r="F2" s="34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="44"/>
-      <c r="B3" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="27">
-        <v>9</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="45"/>
-      <c r="B4" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="27">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="27">
-        <v>62</v>
-      </c>
-      <c r="D5" s="27">
-        <v>25</v>
-      </c>
-      <c r="E5" s="37">
-        <v>140</v>
-      </c>
-      <c r="F5" s="34">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="44"/>
-      <c r="B6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="27">
-        <v>45</v>
-      </c>
-      <c r="D6" s="27">
-        <v>23</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="44"/>
-      <c r="B7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="27">
-        <v>18</v>
-      </c>
-      <c r="D7" s="27">
-        <v>8</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="44"/>
-      <c r="B8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="27">
-        <v>15</v>
-      </c>
-      <c r="D8" s="27">
-        <v>6</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="45"/>
-      <c r="B9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="27">
-        <v>86</v>
-      </c>
-      <c r="D10" s="27">
-        <v>25</v>
-      </c>
-      <c r="E10" s="37">
-        <v>156</v>
-      </c>
-      <c r="F10" s="34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="44"/>
-      <c r="B11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="27">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27">
-        <v>7</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="44"/>
-      <c r="B12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="27">
-        <v>1</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="44"/>
-      <c r="B13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="27">
-        <v>14</v>
-      </c>
-      <c r="D13" s="27">
-        <v>6</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="44"/>
-      <c r="B14" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="27">
-        <v>25</v>
-      </c>
-      <c r="D14" s="27">
-        <v>5</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" ht="18">
-      <c r="A15" s="45"/>
-      <c r="B15" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="27">
-        <v>12</v>
-      </c>
-      <c r="D16" s="27">
-        <v>1</v>
-      </c>
-      <c r="E16" s="37">
-        <v>161</v>
-      </c>
-      <c r="F16" s="34">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="44"/>
-      <c r="B17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="27">
-        <v>33</v>
-      </c>
-      <c r="D17" s="27">
-        <v>10</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="44"/>
-      <c r="B18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="27">
-        <v>39</v>
-      </c>
-      <c r="D18" s="27">
-        <v>9</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="44"/>
-      <c r="B19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="27">
-        <v>74</v>
-      </c>
-      <c r="D19" s="27">
-        <v>16</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="44"/>
-      <c r="B20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27">
-        <v>3</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="45"/>
-      <c r="B21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="27">
-        <v>17</v>
-      </c>
-      <c r="D22" s="27">
-        <v>4</v>
-      </c>
-      <c r="E22" s="37">
-        <v>165</v>
-      </c>
-      <c r="F22" s="34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="44"/>
-      <c r="B23" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="27">
-        <v>4</v>
-      </c>
-      <c r="D23" s="27">
-        <v>1</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="44"/>
-      <c r="B24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="27">
-        <v>87</v>
-      </c>
-      <c r="D24" s="27">
-        <v>12</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="44"/>
-      <c r="B25" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="27">
-        <v>57</v>
-      </c>
-      <c r="D25" s="27">
-        <v>17</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="44"/>
-      <c r="B26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="45"/>
-      <c r="B27" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="27">
-        <v>83</v>
-      </c>
-      <c r="D28" s="27">
-        <v>31</v>
-      </c>
-      <c r="E28" s="37">
-        <v>295</v>
-      </c>
-      <c r="F28" s="34">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="44"/>
-      <c r="B29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1</v>
-      </c>
-      <c r="D29" s="27">
-        <v>0</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="44"/>
-      <c r="B30" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="27">
-        <v>63</v>
-      </c>
-      <c r="D30" s="27">
-        <v>25</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="44"/>
-      <c r="B31" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="27">
-        <v>81</v>
-      </c>
-      <c r="D31" s="27">
-        <v>23</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="44"/>
-      <c r="B32" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="27">
-        <v>54</v>
-      </c>
-      <c r="D32" s="27">
-        <v>10</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="1:6" ht="18">
-      <c r="A33" s="44"/>
-      <c r="B33" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="27">
-        <v>13</v>
-      </c>
-      <c r="D33" s="27">
-        <v>3</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" spans="1:6" ht="18">
-      <c r="A34" s="45"/>
-      <c r="B34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="27">
-        <v>0</v>
-      </c>
-      <c r="D34" s="27">
-        <v>0</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" spans="1:6" ht="18">
-      <c r="A35" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="27">
-        <v>45</v>
-      </c>
-      <c r="D35" s="27">
-        <v>15</v>
-      </c>
-      <c r="E35" s="37">
-        <v>682</v>
-      </c>
-      <c r="F35" s="34">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18">
-      <c r="A36" s="44"/>
-      <c r="B36" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="27">
-        <v>72</v>
-      </c>
-      <c r="D36" s="27">
-        <v>28</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:6" ht="18">
-      <c r="A37" s="44"/>
-      <c r="B37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="27">
-        <v>3</v>
-      </c>
-      <c r="D37" s="27">
-        <v>0</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:6" ht="18">
-      <c r="A38" s="44"/>
-      <c r="B38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="27">
-        <v>54</v>
-      </c>
-      <c r="D38" s="27">
-        <v>24</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:6" ht="18">
-      <c r="A39" s="44"/>
-      <c r="B39" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="27">
-        <v>74</v>
-      </c>
-      <c r="D39" s="27">
-        <v>14</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:6" ht="18">
-      <c r="A40" s="44"/>
-      <c r="B40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="27">
-        <v>69</v>
-      </c>
-      <c r="D40" s="27">
-        <v>34</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="1:6" ht="18">
-      <c r="A41" s="44"/>
-      <c r="B41" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="27">
-        <v>48</v>
-      </c>
-      <c r="D41" s="27">
-        <v>18</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="1:6" ht="18">
-      <c r="A42" s="44"/>
-      <c r="B42" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="27">
-        <v>93</v>
-      </c>
-      <c r="D42" s="27">
-        <v>53</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="1:6" ht="18">
-      <c r="A43" s="44"/>
-      <c r="B43" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="27">
-        <v>49</v>
-      </c>
-      <c r="D43" s="27">
-        <v>7</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44" spans="1:6" ht="18">
-      <c r="A44" s="44"/>
-      <c r="B44" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="27">
-        <v>57</v>
-      </c>
-      <c r="D44" s="27">
-        <v>30</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45" spans="1:6" ht="18">
-      <c r="A45" s="44"/>
-      <c r="B45" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="27">
-        <v>7</v>
-      </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="1:6" ht="18">
-      <c r="A46" s="44"/>
-      <c r="B46" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="27">
-        <v>64</v>
-      </c>
-      <c r="D46" s="27">
-        <v>37</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="1:6" ht="18">
-      <c r="A47" s="44"/>
-      <c r="B47" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="27">
-        <v>47</v>
-      </c>
-      <c r="D47" s="27">
-        <v>19</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48" spans="1:6" ht="18">
-      <c r="A48" s="44"/>
-      <c r="B48" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="27">
-        <v>0</v>
-      </c>
-      <c r="D48" s="27">
-        <v>0</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:6" ht="18">
-      <c r="A49" s="45"/>
-      <c r="B49" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="27">
-        <v>0</v>
-      </c>
-      <c r="D49" s="27">
-        <v>0</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="27">
-        <v>41</v>
-      </c>
-      <c r="D50" s="27">
-        <v>8</v>
-      </c>
-      <c r="E50" s="40">
-        <v>248</v>
-      </c>
-      <c r="F50" s="41">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="42"/>
-      <c r="B51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="27">
-        <v>51</v>
-      </c>
-      <c r="D51" s="27">
-        <v>15</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-    </row>
-    <row r="52" spans="1:6" ht="18">
-      <c r="A52" s="42"/>
-      <c r="B52" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="27">
-        <v>60</v>
-      </c>
-      <c r="D52" s="27">
-        <v>24</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-    </row>
-    <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="42"/>
-      <c r="B53" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="27">
-        <v>7</v>
-      </c>
-      <c r="D53" s="27">
-        <v>3</v>
-      </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-    </row>
-    <row r="54" spans="1:6" ht="18">
-      <c r="A54" s="42"/>
-      <c r="B54" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="27">
-        <v>67</v>
-      </c>
-      <c r="D54" s="27">
-        <v>24</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="42"/>
-      <c r="B55" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="27">
-        <v>22</v>
-      </c>
-      <c r="D55" s="27">
-        <v>7</v>
-      </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-    </row>
-    <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="42"/>
-      <c r="B56" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="27">
-        <v>0</v>
-      </c>
-      <c r="D56" s="27">
-        <v>0</v>
-      </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-    </row>
-    <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="30">
+      <c r="B57" s="35"/>
+      <c r="C57" s="32">
         <f>SUM(C2:C56)</f>
         <v>1957</v>
       </c>
@@ -2823,11 +2897,11 @@
         <f>SUM(D2:D56)</f>
         <v>655</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="30">
         <f>SUM(E2:E56)</f>
         <v>1957</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="31">
         <f>SUM(F2:F56)</f>
         <v>655</v>
       </c>

--- a/meta/news_keywords2.xlsx
+++ b/meta/news_keywords2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choonghyunryu/Documents/05_analytics/news_scrap/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5343C-5EFF-1648-B7D0-9275D703042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9D4CF9-56C8-C649-B807-E08F92C07AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27040" yWindow="500" windowWidth="38400" windowHeight="20160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27040" windowHeight="17560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="신문기사 스크래핑 키워드" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>조회방식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kwd_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>keyword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -314,10 +310,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교보생명 설계사</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -777,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,12 +839,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -883,27 +869,36 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -911,15 +906,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1194,7 @@
   </sheetPr>
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -1884,24 +1870,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CD11B6-593B-7342-BFE1-E386BA8E8ABD}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="25" customWidth="1"/>
     <col min="2" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="27"/>
+    <col min="5" max="5" width="11.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
-        <v>80</v>
+      <c r="A1" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>71</v>
@@ -1910,13 +1896,13 @@
         <v>62</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1933,10 +1919,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1953,70 +1939,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="25" customFormat="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2043,853 +1969,853 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="22" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="D1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="27">
+        <v>90</v>
+      </c>
+      <c r="D2" s="27">
+        <v>26</v>
+      </c>
+      <c r="E2" s="36">
+        <v>110</v>
+      </c>
+      <c r="F2" s="39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="34"/>
+      <c r="B3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="27">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="35"/>
+      <c r="B4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="27">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="27">
+        <v>62</v>
+      </c>
+      <c r="D5" s="27">
+        <v>25</v>
+      </c>
+      <c r="E5" s="36">
+        <v>140</v>
+      </c>
+      <c r="F5" s="39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="34"/>
+      <c r="B6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="27">
+        <v>45</v>
+      </c>
+      <c r="D6" s="27">
+        <v>23</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="34"/>
+      <c r="B7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27">
+        <v>18</v>
+      </c>
+      <c r="D7" s="27">
+        <v>8</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="34"/>
+      <c r="B8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27">
+        <v>15</v>
+      </c>
+      <c r="D8" s="27">
+        <v>6</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="35"/>
+      <c r="B9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="27">
+        <v>86</v>
+      </c>
+      <c r="D10" s="27">
+        <v>25</v>
+      </c>
+      <c r="E10" s="36">
+        <v>156</v>
+      </c>
+      <c r="F10" s="39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="34"/>
+      <c r="B11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="27">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27">
+        <v>7</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="27">
+        <v>14</v>
+      </c>
+      <c r="D13" s="27">
+        <v>6</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="34"/>
+      <c r="B14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="27">
+        <v>25</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="35"/>
+      <c r="B15" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27">
+        <v>12</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="36">
+        <v>161</v>
+      </c>
+      <c r="F16" s="39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="34"/>
+      <c r="B17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27">
+        <v>33</v>
+      </c>
+      <c r="D17" s="27">
+        <v>10</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="34"/>
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27">
+        <v>39</v>
+      </c>
+      <c r="D18" s="27">
+        <v>9</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="34"/>
+      <c r="B19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="27">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27">
+        <v>16</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="34"/>
+      <c r="B20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="27">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="35"/>
+      <c r="B21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="27">
+        <v>17</v>
+      </c>
+      <c r="D22" s="27">
+        <v>4</v>
+      </c>
+      <c r="E22" s="36">
+        <v>165</v>
+      </c>
+      <c r="F22" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="34"/>
+      <c r="B23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="27">
+        <v>4</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="34"/>
+      <c r="B24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="27">
+        <v>87</v>
+      </c>
+      <c r="D24" s="27">
+        <v>12</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="34"/>
+      <c r="B25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="27">
+        <v>57</v>
+      </c>
+      <c r="D25" s="27">
+        <v>17</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="34"/>
+      <c r="B26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="35"/>
+      <c r="B27" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="27">
+        <v>83</v>
+      </c>
+      <c r="D28" s="27">
+        <v>31</v>
+      </c>
+      <c r="E28" s="36">
+        <v>295</v>
+      </c>
+      <c r="F28" s="39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="34"/>
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="34"/>
+      <c r="B30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="27">
+        <v>63</v>
+      </c>
+      <c r="D30" s="27">
+        <v>25</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="34"/>
+      <c r="B31" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="27">
+        <v>81</v>
+      </c>
+      <c r="D31" s="27">
+        <v>23</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="34"/>
+      <c r="B32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="27">
+        <v>54</v>
+      </c>
+      <c r="D32" s="27">
+        <v>10</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="34"/>
+      <c r="B33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="27">
+        <v>13</v>
+      </c>
+      <c r="D33" s="27">
+        <v>3</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="35"/>
+      <c r="B34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="41"/>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="27">
+        <v>45</v>
+      </c>
+      <c r="D35" s="27">
+        <v>15</v>
+      </c>
+      <c r="E35" s="36">
+        <v>682</v>
+      </c>
+      <c r="F35" s="39">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="34"/>
+      <c r="B36" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="27">
+        <v>72</v>
+      </c>
+      <c r="D36" s="27">
+        <v>28</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="34"/>
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="27">
+        <v>3</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="A38" s="34"/>
+      <c r="B38" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="27">
+        <v>54</v>
+      </c>
+      <c r="D38" s="27">
+        <v>24</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="A39" s="34"/>
+      <c r="B39" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="27">
+        <v>74</v>
+      </c>
+      <c r="D39" s="27">
+        <v>14</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="A40" s="34"/>
+      <c r="B40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="27">
+        <v>69</v>
+      </c>
+      <c r="D40" s="27">
+        <v>34</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="A41" s="34"/>
+      <c r="B41" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="27">
+        <v>48</v>
+      </c>
+      <c r="D41" s="27">
+        <v>18</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="34"/>
+      <c r="B42" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="27">
+        <v>93</v>
+      </c>
+      <c r="D42" s="27">
+        <v>53</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:6" ht="18">
+      <c r="A43" s="34"/>
+      <c r="B43" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="27">
+        <v>49</v>
+      </c>
+      <c r="D43" s="27">
+        <v>7</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" ht="18">
+      <c r="A44" s="34"/>
+      <c r="B44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="27">
+        <v>57</v>
+      </c>
+      <c r="D44" s="27">
+        <v>30</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6" ht="18">
+      <c r="A45" s="34"/>
+      <c r="B45" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="27">
+        <v>7</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="34"/>
+      <c r="B46" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="27">
+        <v>64</v>
+      </c>
+      <c r="D46" s="27">
+        <v>37</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="34"/>
+      <c r="B47" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="27">
+        <v>47</v>
+      </c>
+      <c r="D47" s="27">
+        <v>19</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="34"/>
+      <c r="B48" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27">
+        <v>0</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="40"/>
+    </row>
+    <row r="49" spans="1:6" ht="18">
+      <c r="A49" s="35"/>
+      <c r="B49" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="41"/>
+    </row>
+    <row r="50" spans="1:6" ht="18">
+      <c r="A50" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="27">
+        <v>41</v>
+      </c>
+      <c r="D50" s="27">
+        <v>8</v>
+      </c>
+      <c r="E50" s="43">
+        <v>248</v>
+      </c>
+      <c r="F50" s="44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18">
+      <c r="A51" s="45"/>
+      <c r="B51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="27">
+        <v>51</v>
+      </c>
+      <c r="D51" s="27">
+        <v>15</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="1:6" ht="18">
+      <c r="A52" s="45"/>
+      <c r="B52" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="27">
+        <v>60</v>
+      </c>
+      <c r="D52" s="27">
+        <v>24</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:6" ht="18">
+      <c r="A53" s="45"/>
+      <c r="B53" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="27">
+        <v>7</v>
+      </c>
+      <c r="D53" s="27">
+        <v>3</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="1:6" ht="18">
+      <c r="A54" s="45"/>
+      <c r="B54" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="27">
+        <v>67</v>
+      </c>
+      <c r="D54" s="27">
+        <v>24</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="1:6" ht="18">
+      <c r="A55" s="45"/>
+      <c r="B55" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="27">
+        <v>22</v>
+      </c>
+      <c r="D55" s="27">
+        <v>7</v>
+      </c>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" ht="18">
+      <c r="A56" s="45"/>
+      <c r="B56" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="27">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" ht="18">
+      <c r="A57" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="29">
-        <v>90</v>
-      </c>
-      <c r="D2" s="29">
-        <v>26</v>
-      </c>
-      <c r="E2" s="39">
-        <v>110</v>
-      </c>
-      <c r="F2" s="36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="46"/>
-      <c r="B3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="29">
-        <v>9</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="47"/>
-      <c r="B4" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="29">
-        <v>11</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="29">
-        <v>62</v>
-      </c>
-      <c r="D5" s="29">
-        <v>25</v>
-      </c>
-      <c r="E5" s="39">
-        <v>140</v>
-      </c>
-      <c r="F5" s="36">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="46"/>
-      <c r="B6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="29">
-        <v>45</v>
-      </c>
-      <c r="D6" s="29">
-        <v>23</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="46"/>
-      <c r="B7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="29">
-        <v>18</v>
-      </c>
-      <c r="D7" s="29">
-        <v>8</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="46"/>
-      <c r="B8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="29">
-        <v>15</v>
-      </c>
-      <c r="D8" s="29">
-        <v>6</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="47"/>
-      <c r="B9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="29">
-        <v>86</v>
-      </c>
-      <c r="D10" s="29">
-        <v>25</v>
-      </c>
-      <c r="E10" s="39">
-        <v>156</v>
-      </c>
-      <c r="F10" s="36">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="46"/>
-      <c r="B11" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="29">
-        <v>30</v>
-      </c>
-      <c r="D11" s="29">
-        <v>7</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="46"/>
-      <c r="B12" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="46"/>
-      <c r="B13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="29">
-        <v>14</v>
-      </c>
-      <c r="D13" s="29">
-        <v>6</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="46"/>
-      <c r="B14" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="29">
-        <v>25</v>
-      </c>
-      <c r="D14" s="29">
-        <v>5</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:6" ht="18">
-      <c r="A15" s="47"/>
-      <c r="B15" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="29">
-        <v>12</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="39">
-        <v>161</v>
-      </c>
-      <c r="F16" s="36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="46"/>
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="29">
-        <v>33</v>
-      </c>
-      <c r="D17" s="29">
-        <v>10</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="46"/>
-      <c r="B18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="29">
-        <v>39</v>
-      </c>
-      <c r="D18" s="29">
-        <v>9</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="46"/>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="29">
-        <v>74</v>
-      </c>
-      <c r="D19" s="29">
-        <v>16</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="46"/>
-      <c r="B20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="29">
-        <v>3</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="47"/>
-      <c r="B21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29">
-        <v>17</v>
-      </c>
-      <c r="D22" s="29">
-        <v>4</v>
-      </c>
-      <c r="E22" s="39">
-        <v>165</v>
-      </c>
-      <c r="F22" s="36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="46"/>
-      <c r="B23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="29">
-        <v>4</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="46"/>
-      <c r="B24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29">
-        <v>87</v>
-      </c>
-      <c r="D24" s="29">
-        <v>12</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="46"/>
-      <c r="B25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="29">
-        <v>57</v>
-      </c>
-      <c r="D25" s="29">
-        <v>17</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="37"/>
-    </row>
-    <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="46"/>
-      <c r="B26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="47"/>
-      <c r="B27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="29">
-        <v>0</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="29">
-        <v>83</v>
-      </c>
-      <c r="D28" s="29">
-        <v>31</v>
-      </c>
-      <c r="E28" s="39">
-        <v>295</v>
-      </c>
-      <c r="F28" s="36">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="46"/>
-      <c r="B29" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="46"/>
-      <c r="B30" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="29">
-        <v>63</v>
-      </c>
-      <c r="D30" s="29">
-        <v>25</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="46"/>
-      <c r="B31" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="29">
-        <v>81</v>
-      </c>
-      <c r="D31" s="29">
-        <v>23</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="46"/>
-      <c r="B32" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="29">
-        <v>54</v>
-      </c>
-      <c r="D32" s="29">
-        <v>10</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="1:6" ht="18">
-      <c r="A33" s="46"/>
-      <c r="B33" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="29">
-        <v>13</v>
-      </c>
-      <c r="D33" s="29">
-        <v>3</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="1:6" ht="18">
-      <c r="A34" s="47"/>
-      <c r="B34" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="29">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:6" ht="18">
-      <c r="A35" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="29">
-        <v>45</v>
-      </c>
-      <c r="D35" s="29">
-        <v>15</v>
-      </c>
-      <c r="E35" s="39">
-        <v>682</v>
-      </c>
-      <c r="F35" s="36">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18">
-      <c r="A36" s="46"/>
-      <c r="B36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="29">
-        <v>72</v>
-      </c>
-      <c r="D36" s="29">
-        <v>28</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="37"/>
-    </row>
-    <row r="37" spans="1:6" ht="18">
-      <c r="A37" s="46"/>
-      <c r="B37" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="29">
-        <v>3</v>
-      </c>
-      <c r="D37" s="29">
-        <v>0</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="37"/>
-    </row>
-    <row r="38" spans="1:6" ht="18">
-      <c r="A38" s="46"/>
-      <c r="B38" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="29">
-        <v>54</v>
-      </c>
-      <c r="D38" s="29">
-        <v>24</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="37"/>
-    </row>
-    <row r="39" spans="1:6" ht="18">
-      <c r="A39" s="46"/>
-      <c r="B39" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="29">
-        <v>74</v>
-      </c>
-      <c r="D39" s="29">
-        <v>14</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="37"/>
-    </row>
-    <row r="40" spans="1:6" ht="18">
-      <c r="A40" s="46"/>
-      <c r="B40" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="29">
-        <v>69</v>
-      </c>
-      <c r="D40" s="29">
-        <v>34</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="37"/>
-    </row>
-    <row r="41" spans="1:6" ht="18">
-      <c r="A41" s="46"/>
-      <c r="B41" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="29">
-        <v>48</v>
-      </c>
-      <c r="D41" s="29">
-        <v>18</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="37"/>
-    </row>
-    <row r="42" spans="1:6" ht="18">
-      <c r="A42" s="46"/>
-      <c r="B42" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="29">
-        <v>93</v>
-      </c>
-      <c r="D42" s="29">
-        <v>53</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" spans="1:6" ht="18">
-      <c r="A43" s="46"/>
-      <c r="B43" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="29">
-        <v>49</v>
-      </c>
-      <c r="D43" s="29">
-        <v>7</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="1:6" ht="18">
-      <c r="A44" s="46"/>
-      <c r="B44" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="29">
-        <v>57</v>
-      </c>
-      <c r="D44" s="29">
-        <v>30</v>
-      </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="1:6" ht="18">
-      <c r="A45" s="46"/>
-      <c r="B45" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="29">
-        <v>7</v>
-      </c>
-      <c r="D45" s="29">
-        <v>0</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="37"/>
-    </row>
-    <row r="46" spans="1:6" ht="18">
-      <c r="A46" s="46"/>
-      <c r="B46" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="29">
-        <v>64</v>
-      </c>
-      <c r="D46" s="29">
-        <v>37</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="37"/>
-    </row>
-    <row r="47" spans="1:6" ht="18">
-      <c r="A47" s="46"/>
-      <c r="B47" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="29">
-        <v>47</v>
-      </c>
-      <c r="D47" s="29">
-        <v>19</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="37"/>
-    </row>
-    <row r="48" spans="1:6" ht="18">
-      <c r="A48" s="46"/>
-      <c r="B48" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="29">
-        <v>0</v>
-      </c>
-      <c r="D48" s="29">
-        <v>0</v>
-      </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="37"/>
-    </row>
-    <row r="49" spans="1:6" ht="18">
-      <c r="A49" s="47"/>
-      <c r="B49" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="29">
-        <v>0</v>
-      </c>
-      <c r="D49" s="29">
-        <v>0</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="38"/>
-    </row>
-    <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="29">
-        <v>41</v>
-      </c>
-      <c r="D50" s="29">
-        <v>8</v>
-      </c>
-      <c r="E50" s="42">
-        <v>248</v>
-      </c>
-      <c r="F50" s="43">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="44"/>
-      <c r="B51" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="29">
-        <v>51</v>
-      </c>
-      <c r="D51" s="29">
-        <v>15</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="1:6" ht="18">
-      <c r="A52" s="44"/>
-      <c r="B52" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="29">
-        <v>60</v>
-      </c>
-      <c r="D52" s="29">
-        <v>24</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="44"/>
-      <c r="B53" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="29">
-        <v>7</v>
-      </c>
-      <c r="D53" s="29">
-        <v>3</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:6" ht="18">
-      <c r="A54" s="44"/>
-      <c r="B54" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="29">
-        <v>67</v>
-      </c>
-      <c r="D54" s="29">
-        <v>24</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="44"/>
-      <c r="B55" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="29">
-        <v>22</v>
-      </c>
-      <c r="D55" s="29">
-        <v>7</v>
-      </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="44"/>
-      <c r="B56" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="29">
-        <v>0</v>
-      </c>
-      <c r="D56" s="29">
-        <v>0</v>
-      </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="32">
+      <c r="B57" s="42"/>
+      <c r="C57" s="30">
         <f>SUM(C2:C56)</f>
         <v>1957</v>
       </c>
@@ -2897,17 +2823,28 @@
         <f>SUM(D2:D56)</f>
         <v>655</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E2:E56)</f>
         <v>1957</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="29">
         <f>SUM(F2:F56)</f>
         <v>655</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="E35:E49"/>
+    <mergeCell ref="F35:F49"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A49"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="F16:F21"/>
@@ -2922,17 +2859,6 @@
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="F10:F15"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="E35:E49"/>
-    <mergeCell ref="F35:F49"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A49"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
